--- a/datasets_single/kpcb_gent.xlsx
+++ b/datasets_single/kpcb_gent.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7243F1-B300-AE4C-9F08-EF2F1807A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7273D8B7-018C-7847-AFC1-FE402B25E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -38,6 +51,9 @@
   </si>
   <si>
     <t>KPCB</t>
+  </si>
+  <si>
+    <t>gent_s</t>
   </si>
 </sst>
 </file>
@@ -885,15 +901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="A37:E37"/>
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -926,8 +945,12 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>42*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -941,10 +964,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F36" si="0">42*E3</f>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -958,10 +985,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -975,10 +1006,14 @@
         <v>24</v>
       </c>
       <c r="E5" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -994,8 +1029,12 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1009,10 +1048,14 @@
         <v>9.5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1026,10 +1069,14 @@
         <v>13</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1043,10 +1090,14 @@
         <v>24</v>
       </c>
       <c r="E9" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1062,8 +1113,12 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1077,10 +1132,14 @@
         <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1096,8 +1155,12 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1111,10 +1174,14 @@
         <v>11.17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1130,8 +1197,12 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1145,10 +1216,14 @@
         <v>9.5</v>
       </c>
       <c r="E15" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1162,10 +1237,14 @@
         <v>11.33</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1179,10 +1258,14 @@
         <v>24</v>
       </c>
       <c r="E17" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1198,8 +1281,12 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1213,10 +1300,14 @@
         <v>9.83</v>
       </c>
       <c r="E19" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1230,10 +1321,14 @@
         <v>10</v>
       </c>
       <c r="E20" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1247,10 +1342,14 @@
         <v>13.83</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1264,10 +1363,14 @@
         <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1281,10 +1384,14 @@
         <v>24</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1300,8 +1407,12 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1315,10 +1426,14 @@
         <v>9.66</v>
       </c>
       <c r="E25" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -1332,10 +1447,14 @@
         <v>9.83</v>
       </c>
       <c r="E26" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1349,10 +1468,14 @@
         <v>12</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1366,10 +1489,14 @@
         <v>24</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1385,8 +1512,12 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1400,10 +1531,14 @@
         <v>12</v>
       </c>
       <c r="E30" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1417,10 +1552,14 @@
         <v>24</v>
       </c>
       <c r="E31" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>23.939999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1434,10 +1573,14 @@
         <v>24</v>
       </c>
       <c r="E32" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -1453,8 +1596,12 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -1468,10 +1615,14 @@
         <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.38</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1485,10 +1636,14 @@
         <v>21</v>
       </c>
       <c r="E35" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>23.939999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -1502,10 +1657,14 @@
         <v>24</v>
       </c>
       <c r="E36" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.76</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>31.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/datasets_single/kpcb_gent.xlsx
+++ b/datasets_single/kpcb_gent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7273D8B7-018C-7847-AFC1-FE402B25E261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E9D7E1-ECFA-1A40-B7BC-861F5F6FFAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>replicate</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>gent_s</t>
+  </si>
+  <si>
+    <t>gent_mic</t>
   </si>
 </sst>
 </file>
@@ -901,15 +904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F36"/>
+      <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +931,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -949,8 +955,12 @@
         <f>42*E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>E2/0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,8 +980,12 @@
         <f t="shared" ref="F3:F36" si="0">42*E3</f>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G36" si="1">E3/0.5</f>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -991,8 +1005,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1012,8 +1030,12 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1033,8 +1055,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1054,8 +1080,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1075,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1096,8 +1130,12 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1117,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1138,8 +1180,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1159,8 +1205,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -1180,8 +1230,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1201,8 +1255,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1222,8 +1280,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1243,8 +1305,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1264,8 +1330,12 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1285,8 +1355,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -1306,8 +1380,12 @@
         <f t="shared" si="0"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1327,8 +1405,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1348,8 +1430,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1369,8 +1455,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1390,8 +1480,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1411,8 +1505,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1432,8 +1530,12 @@
         <f t="shared" si="0"/>
         <v>2.3940000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>7</v>
       </c>
@@ -1453,8 +1555,12 @@
         <f t="shared" si="0"/>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -1474,8 +1580,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -1495,8 +1605,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1516,8 +1630,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1537,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>15.96</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>8</v>
       </c>
@@ -1558,8 +1680,12 @@
         <f t="shared" si="0"/>
         <v>23.939999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1579,8 +1705,12 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -1600,8 +1730,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -1621,8 +1755,12 @@
         <f t="shared" si="0"/>
         <v>15.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1642,8 +1780,12 @@
         <f t="shared" si="0"/>
         <v>23.939999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>9</v>
       </c>
@@ -1663,8 +1805,12 @@
         <f t="shared" si="0"/>
         <v>31.92</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/datasets_single/kpcb_gent.xlsx
+++ b/datasets_single/kpcb_gent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E9D7E1-ECFA-1A40-B7BC-861F5F6FFAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E76AC9-7F68-5E40-963B-76CF0F38FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9880" yWindow="7420" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
@@ -608,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -648,7 +648,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -754,7 +754,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -896,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,7 +907,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G36"/>
+      <selection activeCell="D2" sqref="D2:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>E2/0.5</f>
+        <f>F2/0.5</f>
         <v>0</v>
       </c>
     </row>
@@ -981,8 +981,8 @@
         <v>9.9749999999999996</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G36" si="1">E3/0.5</f>
-        <v>0.47499999999999998</v>
+        <f t="shared" ref="G3:G36" si="1">F3/0.5</f>
+        <v>19.95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.114</v>
+        <v>4.7880000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>159.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0.114</v>
+        <v>4.7880000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0.95</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>1.1399999999999999</v>
+        <v>47.879999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>1.1399999999999999</v>
+        <v>47.879999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>1.52</v>
+        <v>63.84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
